--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.0787415137048</v>
+        <v>2.531682</v>
       </c>
       <c r="H2">
-        <v>2.0787415137048</v>
+        <v>7.595046</v>
       </c>
       <c r="I2">
-        <v>0.7520128206966379</v>
+        <v>0.6122191758781785</v>
       </c>
       <c r="J2">
-        <v>0.7520128206966379</v>
+        <v>0.6122191758781785</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N2">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O2">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P2">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q2">
-        <v>6.376488097126329</v>
+        <v>22.709309060736</v>
       </c>
       <c r="R2">
-        <v>6.376488097126329</v>
+        <v>204.383781546624</v>
       </c>
       <c r="S2">
-        <v>0.1862607518352273</v>
+        <v>0.2982173376970839</v>
       </c>
       <c r="T2">
-        <v>0.1862607518352273</v>
+        <v>0.2982173376970839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.0787415137048</v>
+        <v>2.531682</v>
       </c>
       <c r="H3">
-        <v>2.0787415137048</v>
+        <v>7.595046</v>
       </c>
       <c r="I3">
-        <v>0.7520128206966379</v>
+        <v>0.6122191758781785</v>
       </c>
       <c r="J3">
-        <v>0.7520128206966379</v>
+        <v>0.6122191758781785</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N3">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q3">
-        <v>18.54544016422175</v>
+        <v>22.815697089528</v>
       </c>
       <c r="R3">
-        <v>18.54544016422175</v>
+        <v>205.341273805752</v>
       </c>
       <c r="S3">
-        <v>0.541722587024023</v>
+        <v>0.2996144191593308</v>
       </c>
       <c r="T3">
-        <v>0.541722587024023</v>
+        <v>0.2996144191593308</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.0787415137048</v>
+        <v>2.531682</v>
       </c>
       <c r="H4">
-        <v>2.0787415137048</v>
+        <v>7.595046</v>
       </c>
       <c r="I4">
-        <v>0.7520128206966379</v>
+        <v>0.6122191758781785</v>
       </c>
       <c r="J4">
-        <v>0.7520128206966379</v>
+        <v>0.6122191758781785</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N4">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q4">
-        <v>0.8226301215178293</v>
+        <v>1.095604795062</v>
       </c>
       <c r="R4">
-        <v>0.8226301215178293</v>
+        <v>9.860443155558</v>
       </c>
       <c r="S4">
-        <v>0.02402948183738759</v>
+        <v>0.01438741902176392</v>
       </c>
       <c r="T4">
-        <v>0.02402948183738759</v>
+        <v>0.01438741902176392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.685495287177302</v>
+        <v>1.603572333333333</v>
       </c>
       <c r="H5">
-        <v>0.685495287177302</v>
+        <v>4.810717</v>
       </c>
       <c r="I5">
-        <v>0.2479871793033622</v>
+        <v>0.3877808241218215</v>
       </c>
       <c r="J5">
-        <v>0.2479871793033622</v>
+        <v>0.3877808241218215</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N5">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O5">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P5">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q5">
-        <v>2.10273981180663</v>
+        <v>14.384120801472</v>
       </c>
       <c r="R5">
-        <v>2.10273981180663</v>
+        <v>129.457087213248</v>
       </c>
       <c r="S5">
-        <v>0.06142219546171104</v>
+        <v>0.1888914453123921</v>
       </c>
       <c r="T5">
-        <v>0.06142219546171104</v>
+        <v>0.1888914453123921</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.685495287177302</v>
+        <v>1.603572333333333</v>
       </c>
       <c r="H6">
-        <v>0.685495287177302</v>
+        <v>4.810717</v>
       </c>
       <c r="I6">
-        <v>0.2479871793033622</v>
+        <v>0.3877808241218215</v>
       </c>
       <c r="J6">
-        <v>0.2479871793033622</v>
+        <v>0.3877808241218215</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N6">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q6">
-        <v>6.115628974256389</v>
+        <v>14.45150718711156</v>
       </c>
       <c r="R6">
-        <v>6.115628974256389</v>
+        <v>130.063564684004</v>
       </c>
       <c r="S6">
-        <v>0.1786409122607239</v>
+        <v>0.1897763594446852</v>
       </c>
       <c r="T6">
-        <v>0.1786409122607239</v>
+        <v>0.1897763594446852</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.685495287177302</v>
+        <v>1.603572333333333</v>
       </c>
       <c r="H7">
-        <v>0.685495287177302</v>
+        <v>4.810717</v>
       </c>
       <c r="I7">
-        <v>0.2479871793033622</v>
+        <v>0.3877808241218215</v>
       </c>
       <c r="J7">
-        <v>0.2479871793033622</v>
+        <v>0.3877808241218215</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N7">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O7">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P7">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q7">
-        <v>0.271274262659789</v>
+        <v>0.6939582213045555</v>
       </c>
       <c r="R7">
-        <v>0.271274262659789</v>
+        <v>6.245623991741001</v>
       </c>
       <c r="S7">
-        <v>0.007924071580927188</v>
+        <v>0.009113019364744209</v>
       </c>
       <c r="T7">
-        <v>0.007924071580927188</v>
+        <v>0.009113019364744209</v>
       </c>
     </row>
   </sheetData>
